--- a/template.xlsx
+++ b/template.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\python-project\xl2sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C255CE-75F4-4DC0-B7B6-E1A534BDF509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B716DDEE-4AEE-432A-BCFC-2CFED9E4C4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{8B4295C0-AF5C-47F4-871A-85188FD9C5BB}"/>
+    <workbookView xWindow="4300" yWindow="950" windowWidth="15330" windowHeight="10740" activeTab="1" xr2:uid="{8B4295C0-AF5C-47F4-871A-85188FD9C5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_NAME" sheetId="1" r:id="rId1"/>
+    <sheet name="TABLE_NAME_BULK" sheetId="3" r:id="rId2"/>
+    <sheet name="TEST_ID" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>あああ</t>
     <phoneticPr fontId="1"/>
@@ -174,6 +176,82 @@
   </si>
   <si>
     <t>yyyy-mm-dd hh24:mi:ss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X0000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X0000002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X0000003</t>
+  </si>
+  <si>
+    <t>X0000004</t>
+  </si>
+  <si>
+    <t>X0000005</t>
+  </si>
+  <si>
+    <t>X0000006</t>
+  </si>
+  <si>
+    <t>X0000007</t>
+  </si>
+  <si>
+    <t>X0000008</t>
+  </si>
+  <si>
+    <t>X0000009</t>
+  </si>
+  <si>
+    <t>X0000010</t>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(5,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A10000000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A10000000002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A10000000003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A10000000004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A10000000005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set bulk copy</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -662,13 +740,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C800B6-B092-4765-A229-EBDFB099F86C}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -820,12 +901,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -836,4 +917,333 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1C1019-54DC-4DE6-BDD1-BB975530DE93}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G23" sqref="G23"/>
+      <selection pane="topRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="B1" ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)&amp;"_"&amp;G1</f>
+        <v>template_TABLE_NAME_BULK</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="str" cm="1">
+        <f t="array" aca="1" ref="G1" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>TABLE_NAME_BULK</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="10"/>
+      <c r="O1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6">
+        <f>COUNTA(B6:XFD6)</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6">
+        <f>IF(COUNTA(B7:B1048576)=0,IF(COUNTA(C7:C1048576)=0,COUNTA(D7:D1048576),COUNTA(C7:C1048576)),COUNTA(B7:B1048576))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:M1" xr:uid="{C43F1F6E-9756-4CB9-A280-B81413973030}">
+      <formula1>"oracle,mysql,postgresql"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD25A6E-CAF0-42D8-B57F-6B30EB520496}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6">
+        <f>COUNTA(B3:B1048576)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\python-project\xl2sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B716DDEE-4AEE-432A-BCFC-2CFED9E4C4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97754EC5-6BB0-4CB6-B869-AF4EAF00FDF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="950" windowWidth="15330" windowHeight="10740" activeTab="1" xr2:uid="{8B4295C0-AF5C-47F4-871A-85188FD9C5BB}"/>
+    <workbookView xWindow="580" yWindow="390" windowWidth="15330" windowHeight="10740" xr2:uid="{8B4295C0-AF5C-47F4-871A-85188FD9C5BB}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_NAME" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>あああ</t>
     <phoneticPr fontId="1"/>
@@ -252,6 +252,42 @@
   </si>
   <si>
     <t>set bulk copy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COL_E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER(3, 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COL_F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>102.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>104.3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -745,11 +781,11 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32:E33"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -812,7 +848,7 @@
       </c>
       <c r="B3" s="6">
         <f>COUNTA(B6:XFD6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>28</v>
@@ -848,6 +884,12 @@
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
@@ -865,6 +907,12 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1" t="s">
@@ -876,6 +924,12 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
@@ -887,6 +941,12 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1" t="s">
@@ -897,6 +957,12 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +992,7 @@
   </sheetPr>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G23" sqref="G23"/>
       <selection pane="topRight" activeCell="G23" sqref="G23"/>
@@ -1165,13 +1231,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
